--- a/data_SRVF_SPHERE/5.xlsx
+++ b/data_SRVF_SPHERE/5.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
@@ -465,16 +465,16 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>0.947</v>
+        <v>0.946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.949</v>
+        <v>0.82</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>405</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.931</v>
+        <v>0.851</v>
       </c>
       <c r="E3" t="n">
-        <v>1.475</v>
+        <v>1.402</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>410</v>
       </c>
       <c r="B4" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.926</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.921</v>
+        <v>0.841</v>
       </c>
       <c r="E4" t="n">
-        <v>1.368</v>
+        <v>1.299</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>415</v>
       </c>
       <c r="B5" t="n">
-        <v>0.915</v>
+        <v>0.913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.917</v>
+        <v>0.791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.911</v>
+        <v>0.832</v>
       </c>
       <c r="E5" t="n">
-        <v>1.244</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>420</v>
       </c>
       <c r="B6" t="n">
-        <v>0.907</v>
+        <v>0.904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.908</v>
+        <v>0.784</v>
       </c>
       <c r="D6" t="n">
-        <v>0.902</v>
+        <v>0.824</v>
       </c>
       <c r="E6" t="n">
-        <v>1.115</v>
+        <v>1.057</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>425</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.778</v>
       </c>
       <c r="D7" t="n">
-        <v>0.895</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.003</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>430</v>
       </c>
       <c r="B8" t="n">
-        <v>0.894</v>
+        <v>0.889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.893</v>
+        <v>0.772</v>
       </c>
       <c r="D8" t="n">
-        <v>0.888</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.897</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>435</v>
       </c>
       <c r="B9" t="n">
-        <v>0.889</v>
+        <v>0.882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.887</v>
+        <v>0.767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.881</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>440</v>
       </c>
       <c r="B10" t="n">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.883</v>
+        <v>0.764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.875</v>
+        <v>0.803</v>
       </c>
       <c r="E10" t="n">
-        <v>0.738</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>445</v>
       </c>
       <c r="B11" t="n">
-        <v>0.882</v>
+        <v>0.869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.88</v>
+        <v>0.761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.87</v>
+        <v>0.801</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>450</v>
       </c>
       <c r="B12" t="n">
-        <v>0.881</v>
+        <v>0.864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.879</v>
+        <v>0.76</v>
       </c>
       <c r="D12" t="n">
-        <v>0.866</v>
+        <v>0.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.649</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>455</v>
       </c>
       <c r="B13" t="n">
-        <v>0.882</v>
+        <v>0.859</v>
       </c>
       <c r="C13" t="n">
-        <v>0.88</v>
+        <v>0.761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.862</v>
+        <v>0.802</v>
       </c>
       <c r="E13" t="n">
-        <v>0.62</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>460</v>
       </c>
       <c r="B14" t="n">
-        <v>0.886</v>
+        <v>0.855</v>
       </c>
       <c r="C14" t="n">
-        <v>0.884</v>
+        <v>0.765</v>
       </c>
       <c r="D14" t="n">
-        <v>0.86</v>
+        <v>0.805</v>
       </c>
       <c r="E14" t="n">
-        <v>0.592</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>465</v>
       </c>
       <c r="B15" t="n">
-        <v>0.892</v>
+        <v>0.854</v>
       </c>
       <c r="C15" t="n">
-        <v>0.891</v>
+        <v>0.771</v>
       </c>
       <c r="D15" t="n">
-        <v>0.86</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>470</v>
       </c>
       <c r="B16" t="n">
-        <v>0.902</v>
+        <v>0.856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.902</v>
+        <v>0.781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.864</v>
+        <v>0.822</v>
       </c>
       <c r="E16" t="n">
-        <v>0.535</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>475</v>
       </c>
       <c r="B17" t="n">
-        <v>0.918</v>
+        <v>0.862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.919</v>
+        <v>0.795</v>
       </c>
       <c r="D17" t="n">
-        <v>0.873</v>
+        <v>0.837</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>480</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.945</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.889</v>
+        <v>0.861</v>
       </c>
       <c r="E18" t="n">
-        <v>0.459</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>485</v>
       </c>
       <c r="B19" t="n">
-        <v>0.973</v>
+        <v>0.895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.977</v>
+        <v>0.845</v>
       </c>
       <c r="D19" t="n">
-        <v>0.911</v>
+        <v>0.891</v>
       </c>
       <c r="E19" t="n">
-        <v>0.419</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>490</v>
       </c>
       <c r="B20" t="n">
-        <v>1.019</v>
+        <v>0.926</v>
       </c>
       <c r="C20" t="n">
-        <v>1.024</v>
+        <v>0.888</v>
       </c>
       <c r="D20" t="n">
-        <v>0.947</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.374</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>495</v>
       </c>
       <c r="B21" t="n">
-        <v>1.072</v>
+        <v>0.964</v>
       </c>
       <c r="C21" t="n">
-        <v>1.08</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
       <c r="E21" t="n">
-        <v>0.335</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>500</v>
       </c>
       <c r="B22" t="n">
-        <v>1.139</v>
+        <v>1.01</v>
       </c>
       <c r="C22" t="n">
-        <v>1.151</v>
+        <v>0.998</v>
       </c>
       <c r="D22" t="n">
-        <v>1.04</v>
+        <v>1.053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.294</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>505</v>
       </c>
       <c r="B23" t="n">
-        <v>1.212</v>
+        <v>1.054</v>
       </c>
       <c r="C23" t="n">
-        <v>1.228</v>
+        <v>1.065</v>
       </c>
       <c r="D23" t="n">
-        <v>1.091</v>
+        <v>1.124</v>
       </c>
       <c r="E23" t="n">
-        <v>0.259</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>510</v>
       </c>
       <c r="B24" t="n">
-        <v>1.285</v>
+        <v>1.092</v>
       </c>
       <c r="C24" t="n">
-        <v>1.307</v>
+        <v>1.133</v>
       </c>
       <c r="D24" t="n">
-        <v>1.138</v>
+        <v>1.196</v>
       </c>
       <c r="E24" t="n">
-        <v>0.228</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>515</v>
       </c>
       <c r="B25" t="n">
-        <v>1.346</v>
+        <v>1.12</v>
       </c>
       <c r="C25" t="n">
-        <v>1.372</v>
+        <v>1.188</v>
       </c>
       <c r="D25" t="n">
-        <v>1.176</v>
+        <v>1.256</v>
       </c>
       <c r="E25" t="n">
-        <v>0.204</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>520</v>
       </c>
       <c r="B26" t="n">
-        <v>1.393</v>
+        <v>1.141</v>
       </c>
       <c r="C26" t="n">
-        <v>1.421</v>
+        <v>1.231</v>
       </c>
       <c r="D26" t="n">
-        <v>1.208</v>
+        <v>1.301</v>
       </c>
       <c r="E26" t="n">
-        <v>0.184</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>525</v>
       </c>
       <c r="B27" t="n">
-        <v>1.417</v>
+        <v>1.158</v>
       </c>
       <c r="C27" t="n">
-        <v>1.446</v>
+        <v>1.254</v>
       </c>
       <c r="D27" t="n">
-        <v>1.238</v>
+        <v>1.325</v>
       </c>
       <c r="E27" t="n">
-        <v>0.169</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>530</v>
       </c>
       <c r="B28" t="n">
-        <v>1.418</v>
+        <v>1.172</v>
       </c>
       <c r="C28" t="n">
-        <v>1.445</v>
+        <v>1.254</v>
       </c>
       <c r="D28" t="n">
-        <v>1.262</v>
+        <v>1.325</v>
       </c>
       <c r="E28" t="n">
-        <v>0.159</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>535</v>
       </c>
       <c r="B29" t="n">
-        <v>1.398</v>
+        <v>1.186</v>
       </c>
       <c r="C29" t="n">
-        <v>1.42</v>
+        <v>1.237</v>
       </c>
       <c r="D29" t="n">
-        <v>1.288</v>
+        <v>1.306</v>
       </c>
       <c r="E29" t="n">
-        <v>0.15</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>540</v>
       </c>
       <c r="B30" t="n">
-        <v>1.359</v>
+        <v>1.203</v>
       </c>
       <c r="C30" t="n">
-        <v>1.374</v>
+        <v>1.2</v>
       </c>
       <c r="D30" t="n">
-        <v>1.316</v>
+        <v>1.268</v>
       </c>
       <c r="E30" t="n">
-        <v>0.142</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>545</v>
       </c>
       <c r="B31" t="n">
-        <v>1.311</v>
+        <v>1.222</v>
       </c>
       <c r="C31" t="n">
-        <v>1.318</v>
+        <v>1.157</v>
       </c>
       <c r="D31" t="n">
-        <v>1.344</v>
+        <v>1.221</v>
       </c>
       <c r="E31" t="n">
-        <v>0.137</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>550</v>
       </c>
       <c r="B32" t="n">
-        <v>1.254</v>
+        <v>1.246</v>
       </c>
       <c r="C32" t="n">
-        <v>1.255</v>
+        <v>1.106</v>
       </c>
       <c r="D32" t="n">
-        <v>1.373</v>
+        <v>1.167</v>
       </c>
       <c r="E32" t="n">
-        <v>0.132</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>555</v>
       </c>
       <c r="B33" t="n">
-        <v>1.191</v>
+        <v>1.273</v>
       </c>
       <c r="C33" t="n">
-        <v>1.187</v>
+        <v>1.048</v>
       </c>
       <c r="D33" t="n">
-        <v>1.399</v>
+        <v>1.106</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>560</v>
       </c>
       <c r="B34" t="n">
-        <v>1.126</v>
+        <v>1.301</v>
       </c>
       <c r="C34" t="n">
-        <v>1.115</v>
+        <v>0.991</v>
       </c>
       <c r="D34" t="n">
-        <v>1.415</v>
+        <v>1.045</v>
       </c>
       <c r="E34" t="n">
-        <v>0.121</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>565</v>
       </c>
       <c r="B35" t="n">
-        <v>1.063</v>
+        <v>1.324</v>
       </c>
       <c r="C35" t="n">
-        <v>1.048</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.415</v>
+        <v>0.985</v>
       </c>
       <c r="E35" t="n">
-        <v>0.116</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>570</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>1.336</v>
       </c>
       <c r="C36" t="n">
-        <v>0.98</v>
+        <v>0.877</v>
       </c>
       <c r="D36" t="n">
-        <v>1.393</v>
+        <v>0.926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.111</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>575</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9419999999999999</v>
+        <v>1.332</v>
       </c>
       <c r="C37" t="n">
-        <v>0.914</v>
+        <v>0.827</v>
       </c>
       <c r="D37" t="n">
-        <v>1.347</v>
+        <v>0.874</v>
       </c>
       <c r="E37" t="n">
-        <v>0.105</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>580</v>
       </c>
       <c r="B38" t="n">
-        <v>0.887</v>
+        <v>1.305</v>
       </c>
       <c r="C38" t="n">
-        <v>0.852</v>
+        <v>0.779</v>
       </c>
       <c r="D38" t="n">
-        <v>1.279</v>
+        <v>0.823</v>
       </c>
       <c r="E38" t="n">
-        <v>0.099</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>585</v>
       </c>
       <c r="B39" t="n">
-        <v>0.836</v>
+        <v>1.257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.792</v>
+        <v>0.735</v>
       </c>
       <c r="D39" t="n">
-        <v>1.194</v>
+        <v>0.776</v>
       </c>
       <c r="E39" t="n">
-        <v>0.093</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>590</v>
       </c>
       <c r="B40" t="n">
-        <v>0.788</v>
+        <v>1.189</v>
       </c>
       <c r="C40" t="n">
-        <v>0.735</v>
+        <v>0.695</v>
       </c>
       <c r="D40" t="n">
-        <v>1.101</v>
+        <v>0.733</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>595</v>
       </c>
       <c r="B41" t="n">
-        <v>0.746</v>
+        <v>1.111</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D41" t="n">
-        <v>1.012</v>
+        <v>0.695</v>
       </c>
       <c r="E41" t="n">
-        <v>0.082</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>600</v>
       </c>
       <c r="B42" t="n">
-        <v>0.709</v>
+        <v>1.03</v>
       </c>
       <c r="C42" t="n">
-        <v>0.639</v>
+        <v>0.628</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.662</v>
       </c>
       <c r="E42" t="n">
-        <v>0.077</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>605</v>
       </c>
       <c r="B43" t="n">
-        <v>0.673</v>
+        <v>0.948</v>
       </c>
       <c r="C43" t="n">
-        <v>0.595</v>
+        <v>0.598</v>
       </c>
       <c r="D43" t="n">
-        <v>0.873</v>
+        <v>0.628</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>610</v>
       </c>
       <c r="B44" t="n">
-        <v>0.64</v>
+        <v>0.875</v>
       </c>
       <c r="C44" t="n">
-        <v>0.556</v>
+        <v>0.571</v>
       </c>
       <c r="D44" t="n">
-        <v>0.827</v>
+        <v>0.598</v>
       </c>
       <c r="E44" t="n">
-        <v>0.068</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>615</v>
       </c>
       <c r="B45" t="n">
-        <v>0.61</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.521</v>
+        <v>0.545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.799</v>
+        <v>0.569</v>
       </c>
       <c r="E45" t="n">
-        <v>0.064</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>620</v>
       </c>
       <c r="B46" t="n">
-        <v>0.58</v>
+        <v>0.765</v>
       </c>
       <c r="C46" t="n">
-        <v>0.488</v>
+        <v>0.519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.787</v>
+        <v>0.54</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>625</v>
       </c>
       <c r="B47" t="n">
-        <v>0.552</v>
+        <v>0.731</v>
       </c>
       <c r="C47" t="n">
-        <v>0.459</v>
+        <v>0.495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.791</v>
+        <v>0.514</v>
       </c>
       <c r="E47" t="n">
-        <v>0.057</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>630</v>
       </c>
       <c r="B48" t="n">
-        <v>0.527</v>
+        <v>0.712</v>
       </c>
       <c r="C48" t="n">
-        <v>0.435</v>
+        <v>0.473</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.489</v>
       </c>
       <c r="E48" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>635</v>
       </c>
       <c r="B49" t="n">
-        <v>0.502</v>
+        <v>0.704</v>
       </c>
       <c r="C49" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.838</v>
+        <v>0.465</v>
       </c>
       <c r="E49" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>640</v>
       </c>
       <c r="B50" t="n">
-        <v>0.479</v>
+        <v>0.708</v>
       </c>
       <c r="C50" t="n">
-        <v>0.393</v>
+        <v>0.432</v>
       </c>
       <c r="D50" t="n">
-        <v>0.878</v>
+        <v>0.444</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>645</v>
       </c>
       <c r="B51" t="n">
-        <v>0.458</v>
+        <v>0.721</v>
       </c>
       <c r="C51" t="n">
-        <v>0.376</v>
+        <v>0.412</v>
       </c>
       <c r="D51" t="n">
-        <v>0.927</v>
+        <v>0.422</v>
       </c>
       <c r="E51" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>650</v>
       </c>
       <c r="B52" t="n">
-        <v>0.438</v>
+        <v>0.746</v>
       </c>
       <c r="C52" t="n">
-        <v>0.36</v>
+        <v>0.394</v>
       </c>
       <c r="D52" t="n">
-        <v>0.984</v>
+        <v>0.403</v>
       </c>
       <c r="E52" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>655</v>
       </c>
       <c r="B53" t="n">
-        <v>0.42</v>
+        <v>0.779</v>
       </c>
       <c r="C53" t="n">
-        <v>0.346</v>
+        <v>0.377</v>
       </c>
       <c r="D53" t="n">
-        <v>1.045</v>
+        <v>0.384</v>
       </c>
       <c r="E53" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>660</v>
       </c>
       <c r="B54" t="n">
-        <v>0.403</v>
+        <v>0.823</v>
       </c>
       <c r="C54" t="n">
-        <v>0.334</v>
+        <v>0.36</v>
       </c>
       <c r="D54" t="n">
-        <v>1.112</v>
+        <v>0.367</v>
       </c>
       <c r="E54" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>665</v>
       </c>
       <c r="B55" t="n">
-        <v>0.387</v>
+        <v>0.875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.323</v>
+        <v>0.346</v>
       </c>
       <c r="D55" t="n">
-        <v>1.178</v>
+        <v>0.352</v>
       </c>
       <c r="E55" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>670</v>
       </c>
       <c r="B56" t="n">
-        <v>0.373</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.313</v>
+        <v>0.332</v>
       </c>
       <c r="D56" t="n">
-        <v>1.245</v>
+        <v>0.338</v>
       </c>
       <c r="E56" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>675</v>
       </c>
       <c r="B57" t="n">
-        <v>0.361</v>
+        <v>1.01</v>
       </c>
       <c r="C57" t="n">
-        <v>0.305</v>
+        <v>0.319</v>
       </c>
       <c r="D57" t="n">
-        <v>1.306</v>
+        <v>0.325</v>
       </c>
       <c r="E57" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>680</v>
       </c>
       <c r="B58" t="n">
-        <v>0.35</v>
+        <v>1.089</v>
       </c>
       <c r="C58" t="n">
-        <v>0.297</v>
+        <v>0.308</v>
       </c>
       <c r="D58" t="n">
-        <v>1.361</v>
+        <v>0.314</v>
       </c>
       <c r="E58" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>685</v>
       </c>
       <c r="B59" t="n">
-        <v>0.34</v>
+        <v>1.173</v>
       </c>
       <c r="C59" t="n">
-        <v>0.29</v>
+        <v>0.298</v>
       </c>
       <c r="D59" t="n">
-        <v>1.407</v>
+        <v>0.304</v>
       </c>
       <c r="E59" t="n">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>690</v>
       </c>
       <c r="B60" t="n">
-        <v>0.332</v>
+        <v>1.263</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285</v>
+        <v>0.289</v>
       </c>
       <c r="D60" t="n">
-        <v>1.445</v>
+        <v>0.295</v>
       </c>
       <c r="E60" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>695</v>
       </c>
       <c r="B61" t="n">
-        <v>0.325</v>
+        <v>1.358</v>
       </c>
       <c r="C61" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="D61" t="n">
-        <v>1.472</v>
+        <v>0.288</v>
       </c>
       <c r="E61" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>700</v>
       </c>
       <c r="B62" t="n">
-        <v>0.319</v>
+        <v>1.452</v>
       </c>
       <c r="C62" t="n">
         <v>0.275</v>
       </c>
       <c r="D62" t="n">
-        <v>1.488</v>
+        <v>0.282</v>
       </c>
       <c r="E62" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>705</v>
       </c>
       <c r="B63" t="n">
-        <v>0.314</v>
+        <v>1.546</v>
       </c>
       <c r="C63" t="n">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="D63" t="n">
-        <v>1.493</v>
+        <v>0.277</v>
       </c>
       <c r="E63" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>710</v>
       </c>
       <c r="B64" t="n">
-        <v>0.311</v>
+        <v>1.637</v>
       </c>
       <c r="C64" t="n">
-        <v>0.269</v>
+        <v>0.266</v>
       </c>
       <c r="D64" t="n">
-        <v>1.489</v>
+        <v>0.275</v>
       </c>
       <c r="E64" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>715</v>
       </c>
       <c r="B65" t="n">
-        <v>0.308</v>
+        <v>1.719</v>
       </c>
       <c r="C65" t="n">
-        <v>0.268</v>
+        <v>0.264</v>
       </c>
       <c r="D65" t="n">
-        <v>1.474</v>
+        <v>0.273</v>
       </c>
       <c r="E65" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>720</v>
       </c>
       <c r="B66" t="n">
-        <v>0.305</v>
+        <v>1.792</v>
       </c>
       <c r="C66" t="n">
-        <v>0.266</v>
+        <v>0.262</v>
       </c>
       <c r="D66" t="n">
-        <v>1.452</v>
+        <v>0.27</v>
       </c>
       <c r="E66" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>725</v>
       </c>
       <c r="B67" t="n">
-        <v>0.304</v>
+        <v>1.853</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266</v>
+        <v>0.26</v>
       </c>
       <c r="D67" t="n">
-        <v>1.422</v>
+        <v>0.269</v>
       </c>
       <c r="E67" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>730</v>
       </c>
       <c r="B68" t="n">
-        <v>0.305</v>
+        <v>1.904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.267</v>
+        <v>0.26</v>
       </c>
       <c r="D68" t="n">
-        <v>1.388</v>
+        <v>0.269</v>
       </c>
       <c r="E68" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>735</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306</v>
+        <v>1.938</v>
       </c>
       <c r="C69" t="n">
-        <v>0.269</v>
+        <v>0.261</v>
       </c>
       <c r="D69" t="n">
-        <v>1.351</v>
+        <v>0.271</v>
       </c>
       <c r="E69" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>740</v>
       </c>
       <c r="B70" t="n">
-        <v>0.306</v>
+        <v>1.957</v>
       </c>
       <c r="C70" t="n">
-        <v>0.269</v>
+        <v>0.26</v>
       </c>
       <c r="D70" t="n">
-        <v>1.308</v>
+        <v>0.271</v>
       </c>
       <c r="E70" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>745</v>
       </c>
       <c r="B71" t="n">
-        <v>0.305</v>
+        <v>1.959</v>
       </c>
       <c r="C71" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="D71" t="n">
         <v>0.269</v>
       </c>
-      <c r="D71" t="n">
-        <v>1.262</v>
-      </c>
       <c r="E71" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>750</v>
       </c>
       <c r="B72" t="n">
-        <v>0.304</v>
+        <v>1.947</v>
       </c>
       <c r="C72" t="n">
-        <v>0.268</v>
+        <v>0.258</v>
       </c>
       <c r="D72" t="n">
-        <v>1.216</v>
+        <v>0.269</v>
       </c>
       <c r="E72" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>755</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303</v>
+        <v>1.92</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267</v>
+        <v>0.257</v>
       </c>
       <c r="D73" t="n">
-        <v>1.167</v>
+        <v>0.268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>760</v>
       </c>
       <c r="B74" t="n">
-        <v>0.302</v>
+        <v>1.88</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265</v>
+        <v>0.256</v>
       </c>
       <c r="D74" t="n">
-        <v>1.121</v>
+        <v>0.267</v>
       </c>
       <c r="E74" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>765</v>
       </c>
       <c r="B75" t="n">
-        <v>0.301</v>
+        <v>1.829</v>
       </c>
       <c r="C75" t="n">
-        <v>0.264</v>
+        <v>0.256</v>
       </c>
       <c r="D75" t="n">
-        <v>1.075</v>
+        <v>0.267</v>
       </c>
       <c r="E75" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>770</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3</v>
+        <v>1.766</v>
       </c>
       <c r="C76" t="n">
-        <v>0.263</v>
+        <v>0.255</v>
       </c>
       <c r="D76" t="n">
-        <v>1.028</v>
+        <v>0.266</v>
       </c>
       <c r="E76" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>775</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299</v>
+        <v>1.698</v>
       </c>
       <c r="C77" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="D77" t="n">
-        <v>0.985</v>
+        <v>0.266</v>
       </c>
       <c r="E77" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>780</v>
       </c>
       <c r="B78" t="n">
-        <v>0.299</v>
+        <v>1.621</v>
       </c>
       <c r="C78" t="n">
-        <v>0.261</v>
+        <v>0.253</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.265</v>
       </c>
       <c r="E78" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>785</v>
       </c>
       <c r="B79" t="n">
-        <v>0.298</v>
+        <v>1.542</v>
       </c>
       <c r="C79" t="n">
-        <v>0.259</v>
+        <v>0.253</v>
       </c>
       <c r="D79" t="n">
-        <v>0.902</v>
+        <v>0.264</v>
       </c>
       <c r="E79" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>790</v>
       </c>
       <c r="B80" t="n">
-        <v>0.298</v>
+        <v>1.46</v>
       </c>
       <c r="C80" t="n">
-        <v>0.258</v>
+        <v>0.252</v>
       </c>
       <c r="D80" t="n">
-        <v>0.864</v>
+        <v>0.264</v>
       </c>
       <c r="E80" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>795</v>
       </c>
       <c r="B81" t="n">
-        <v>0.297</v>
+        <v>1.376</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257</v>
+        <v>0.251</v>
       </c>
       <c r="D81" t="n">
-        <v>0.827</v>
+        <v>0.263</v>
       </c>
       <c r="E81" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>0.297</v>
+        <v>1.294</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255</v>
+        <v>0.251</v>
       </c>
       <c r="D82" t="n">
-        <v>0.791</v>
+        <v>0.263</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>805</v>
       </c>
       <c r="B83" t="n">
-        <v>0.297</v>
+        <v>1.211</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255</v>
+        <v>0.251</v>
       </c>
       <c r="D83" t="n">
-        <v>0.757</v>
+        <v>0.263</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>810</v>
       </c>
       <c r="B84" t="n">
-        <v>0.297</v>
+        <v>1.135</v>
       </c>
       <c r="C84" t="n">
-        <v>0.254</v>
+        <v>0.251</v>
       </c>
       <c r="D84" t="n">
-        <v>0.725</v>
+        <v>0.263</v>
       </c>
       <c r="E84" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>815</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298</v>
+        <v>1.059</v>
       </c>
       <c r="C85" t="n">
-        <v>0.254</v>
+        <v>0.251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.264</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>820</v>
       </c>
       <c r="B86" t="n">
-        <v>0.301</v>
+        <v>0.979</v>
       </c>
       <c r="C86" t="n">
-        <v>0.257</v>
+        <v>0.252</v>
       </c>
       <c r="D86" t="n">
-        <v>0.66</v>
+        <v>0.265</v>
       </c>
       <c r="E86" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>825</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.255</v>
+        <v>0.254</v>
       </c>
       <c r="D87" t="n">
-        <v>0.64</v>
+        <v>0.267</v>
       </c>
       <c r="E87" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>830</v>
       </c>
       <c r="B88" t="n">
-        <v>0.306</v>
+        <v>0.873</v>
       </c>
       <c r="C88" t="n">
-        <v>0.259</v>
+        <v>0.258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.617</v>
+        <v>0.27</v>
       </c>
       <c r="E88" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>835</v>
       </c>
       <c r="B89" t="n">
-        <v>0.311</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.262</v>
+        <v>0.261</v>
       </c>
       <c r="D89" t="n">
-        <v>0.59</v>
+        <v>0.274</v>
       </c>
       <c r="E89" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>840</v>
       </c>
       <c r="B90" t="n">
-        <v>0.313</v>
+        <v>0.758</v>
       </c>
       <c r="C90" t="n">
-        <v>0.264</v>
+        <v>0.262</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.276</v>
       </c>
       <c r="E90" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>845</v>
       </c>
       <c r="B91" t="n">
-        <v>0.315</v>
+        <v>0.709</v>
       </c>
       <c r="C91" t="n">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
       <c r="D91" t="n">
-        <v>0.54</v>
+        <v>0.277</v>
       </c>
       <c r="E91" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>850</v>
       </c>
       <c r="B92" t="n">
-        <v>0.317</v>
+        <v>0.661</v>
       </c>
       <c r="C92" t="n">
-        <v>0.265</v>
+        <v>0.264</v>
       </c>
       <c r="D92" t="n">
-        <v>0.517</v>
+        <v>0.278</v>
       </c>
       <c r="E92" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>855</v>
       </c>
       <c r="B93" t="n">
-        <v>0.319</v>
+        <v>0.619</v>
       </c>
       <c r="C93" t="n">
-        <v>0.266</v>
+        <v>0.265</v>
       </c>
       <c r="D93" t="n">
-        <v>0.494</v>
+        <v>0.279</v>
       </c>
       <c r="E93" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>860</v>
       </c>
       <c r="B94" t="n">
-        <v>0.321</v>
+        <v>0.579</v>
       </c>
       <c r="C94" t="n">
         <v>0.267</v>
       </c>
       <c r="D94" t="n">
-        <v>0.472</v>
+        <v>0.28</v>
       </c>
       <c r="E94" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>865</v>
       </c>
       <c r="B95" t="n">
-        <v>0.324</v>
+        <v>0.542</v>
       </c>
       <c r="C95" t="n">
         <v>0.269</v>
       </c>
       <c r="D95" t="n">
-        <v>0.452</v>
+        <v>0.282</v>
       </c>
       <c r="E95" t="n">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>870</v>
       </c>
       <c r="B96" t="n">
-        <v>0.329</v>
+        <v>0.511</v>
       </c>
       <c r="C96" t="n">
         <v>0.272</v>
       </c>
       <c r="D96" t="n">
-        <v>0.433</v>
+        <v>0.286</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>875</v>
       </c>
       <c r="B97" t="n">
-        <v>0.333</v>
+        <v>0.481</v>
       </c>
       <c r="C97" t="n">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417</v>
+        <v>0.289</v>
       </c>
       <c r="E97" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>880</v>
       </c>
       <c r="B98" t="n">
-        <v>0.335</v>
+        <v>0.445</v>
       </c>
       <c r="C98" t="n">
         <v>0.275</v>
       </c>
       <c r="D98" t="n">
-        <v>0.393</v>
+        <v>0.289</v>
       </c>
       <c r="E98" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>885</v>
       </c>
       <c r="B99" t="n">
-        <v>0.333</v>
+        <v>0.427</v>
       </c>
       <c r="C99" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="D99" t="n">
-        <v>0.381</v>
+        <v>0.288</v>
       </c>
       <c r="E99" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>890</v>
       </c>
       <c r="B100" t="n">
-        <v>0.335</v>
+        <v>0.397</v>
       </c>
       <c r="C100" t="n">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
       <c r="D100" t="n">
-        <v>0.359</v>
+        <v>0.288</v>
       </c>
       <c r="E100" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>895</v>
       </c>
       <c r="B101" t="n">
-        <v>0.337</v>
+        <v>0.373</v>
       </c>
       <c r="C101" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="D101" t="n">
-        <v>0.342</v>
+        <v>0.29</v>
       </c>
       <c r="E101" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>900</v>
       </c>
       <c r="B102" t="n">
-        <v>0.34</v>
+        <v>0.353</v>
       </c>
       <c r="C102" t="n">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
       <c r="D102" t="n">
-        <v>0.328</v>
+        <v>0.291</v>
       </c>
       <c r="E102" t="n">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
     </row>
   </sheetData>
